--- a/output/extracted_profiles_errors.xlsx
+++ b/output/extracted_profiles_errors.xlsx
@@ -473,7 +473,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>profile-thread-388c4c70-a2c1-45cd-ab8b-42cb12d6ce4e</t>
+          <t>profile-thread-1c91e12f-e753-4133-a526-37b14772d078</t>
         </is>
       </c>
     </row>
@@ -495,7 +495,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>profile-thread-52e2051c-8743-4efb-948f-32734893a8c7</t>
+          <t>profile-thread-7fed5c87-b29d-4ea9-8ba4-c93aa40fdb67</t>
         </is>
       </c>
     </row>

--- a/output/extracted_profiles_errors.xlsx
+++ b/output/extracted_profiles_errors.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>profile-thread-1c91e12f-e753-4133-a526-37b14772d078</t>
+          <t>profile-thread-d8c18ce5-351c-45ae-88f2-b7aa77bbec78</t>
         </is>
       </c>
     </row>
@@ -495,7 +495,29 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>profile-thread-7fed5c87-b29d-4ea9-8ba4-c93aa40fdb67</t>
+          <t>profile-thread-ffe4e96f-25b0-4dec-bd45-5ada36708478</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>https://www.uidaho.edu/cals/agricultural-economics-and-rural-sociology/our-people/andres-trujillo-barrera</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>LLM output failed validation/parsing after successful call</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>{'exception_type': 'ValidationError', 'message': "3 validation errors for ProfileData\ndegrees.0\n  Input should be a valid string [type=string_type, input_value={'degree': 'Ph.D.', 'inst...hampaign', 'year': 2013}, input_type=dict]\n    For further information visit https://errors.pydantic.dev/2.11/v/string_type\ndegrees.1\n  Input should be a valid string [type=string_type, input_value={'degree': 'M.S.', 'insti...iversity', 'year': 2006}, input_type=dict]\n    For further information visit https://errors.pydantic.dev/2.11/v/string_type\ndegrees.2\n  Input should be a valid string [type=string_type, input_value={'degree': 'B.S.', 'insti...a Sabana', 'year': 2001}, input_type=dict]\n    For further information visit https://errors.pydantic.dev/2.11/v/string_type", 'llm_content': '```json\n{\n  "first_name": "Andres",\n  "middle_name": null,\n  "last_name": "Trujillo-Barrera",\n  "title": "Associate Professor &amp; Director, Agricultural Commodity Risk Management Program",\n  "office": "Ag Science, Room 37",\n  "phone": "208-885-1151",\n  "email": "aatrujillo@uidaho.edu",\n  "college_unit": "College of Agricultural and Life Sciences",\n  "department_division": "Department of Agricultural Economics and Rural Sociology",\n  "degrees": [\n    {\n      "degree": "Ph.D.",\n      "institution": "University of Illinois at Urbana-Champaign",\n      "year": 2013\n    },\n    {\n      "degree": "M.S.",\n      "institution": "Illinois State University",\n      "year": 2006\n    },\n    {\n      "degree": "B.S.",\n      "institution": "Universidad de la Sabana",\n      "year": 2001\n    }\n  ],\n  "research_focus_areas": [\n    "A better understanding of volatility and its effect on agribusiness supply chains (marketing strategies, performance, industrial organization)",\n    "Evaluation of risk management instruments (futures, options, insurance, market microstructure)",\n    "Application of new tools to measure and evaluate increased uncertainty by using a combination of marketing, economics and finance theory with quantitative research methods"\n  ],\n  "photo_url": null\n}\n```', 'traceback': 'Traceback (most recent call last):\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/src/nodes.py", line 474, in extract_data\n    extracted_profile = ProfileData(**target_obj)\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/.venv/lib/python3.9/site-packages/pydantic/main.py", line 243, in __init__\n    validated_self = self.__pydantic_validator__.validate_python(data, self_instance=self)\npydantic_core._pydantic_core.ValidationError: 3 validation errors for ProfileData\ndegrees.0\n  Input should be a valid string [type=string_type, input_value={\'degree\': \'Ph.D.\', \'inst...hampaign\', \'year\': 2013}, input_type=dict]\n    For further information visit https://errors.pydantic.dev/2.11/v/string_type\ndegrees.1\n  Input should be a valid string [type=string_type, input_value={\'degree\': \'M.S.\', \'insti...iversity\', \'year\': 2006}, input_type=dict]\n    For further information visit https://errors.pydantic.dev/2.11/v/string_type\ndegrees.2\n  Input should be a valid string [type=string_type, input_value={\'degree\': \'B.S.\', \'insti...a Sabana\', \'year\': 2001}, input_type=dict]\n    For further information visit https://errors.pydantic.dev/2.11/v/string_type\n'}</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>profile-thread-047df88e-28c8-4586-b00b-8ca4b7ea5322</t>
         </is>
       </c>
     </row>

--- a/output/extracted_profiles_errors.xlsx
+++ b/output/extracted_profiles_errors.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,14 +473,14 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>profile-thread-d8c18ce5-351c-45ae-88f2-b7aa77bbec78</t>
+          <t>profile-thread-7388a4a3-91b5-42a4-a1e2-7b295561673c</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://www.uidaho.edu/cals/people/tenley-burke</t>
+          <t>https://www.uidaho.edu/cals/people/mark-mcguire</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -490,34 +490,78 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'exception_type': 'HTTPError', 'message': '404 Client Error: Not Found for url: https://www.uidaho.edu/cals/people/tenley-burke', 'status_code': 404, 'traceback': 'Traceback (most recent call last):\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/src/nodes.py", line 88, in fetch_html\n    response.raise_for_status()  # Raise HTTPError for bad responses (4xx or 5xx)\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/.venv/lib/python3.9/site-packages/requests/models.py", line 1024, in raise_for_status\n    raise HTTPError(http_error_msg, response=self)\nrequests.exceptions.HTTPError: 404 Client Error: Not Found for url: https://www.uidaho.edu/cals/people/tenley-burke\n'}</t>
+          <t>{'exception_type': 'HTTPError', 'message': '404 Client Error: Not Found for url: https://www.uidaho.edu/cals/people/mark-mcguire', 'status_code': 404, 'traceback': 'Traceback (most recent call last):\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/src/nodes.py", line 88, in fetch_html\n    response.raise_for_status()  # Raise HTTPError for bad responses (4xx or 5xx)\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/.venv/lib/python3.9/site-packages/requests/models.py", line 1024, in raise_for_status\n    raise HTTPError(http_error_msg, response=self)\nrequests.exceptions.HTTPError: 404 Client Error: Not Found for url: https://www.uidaho.edu/cals/people/mark-mcguire\n'}</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>profile-thread-ffe4e96f-25b0-4dec-bd45-5ada36708478</t>
+          <t>profile-thread-149f4e6a-3b71-42e1-8e2d-781b89405e91</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://www.uidaho.edu/cals/agricultural-economics-and-rural-sociology/our-people/andres-trujillo-barrera</t>
+          <t>https://www.uidaho.edu/cals/agricultural-economics-and-rural-sociology/our-people/paul-lewin</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LLM output failed validation/parsing after successful call</t>
+          <t>Failed to fetch URL</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{'exception_type': 'ValidationError', 'message': "3 validation errors for ProfileData\ndegrees.0\n  Input should be a valid string [type=string_type, input_value={'degree': 'Ph.D.', 'inst...hampaign', 'year': 2013}, input_type=dict]\n    For further information visit https://errors.pydantic.dev/2.11/v/string_type\ndegrees.1\n  Input should be a valid string [type=string_type, input_value={'degree': 'M.S.', 'insti...iversity', 'year': 2006}, input_type=dict]\n    For further information visit https://errors.pydantic.dev/2.11/v/string_type\ndegrees.2\n  Input should be a valid string [type=string_type, input_value={'degree': 'B.S.', 'insti...a Sabana', 'year': 2001}, input_type=dict]\n    For further information visit https://errors.pydantic.dev/2.11/v/string_type", 'llm_content': '```json\n{\n  "first_name": "Andres",\n  "middle_name": null,\n  "last_name": "Trujillo-Barrera",\n  "title": "Associate Professor &amp; Director, Agricultural Commodity Risk Management Program",\n  "office": "Ag Science, Room 37",\n  "phone": "208-885-1151",\n  "email": "aatrujillo@uidaho.edu",\n  "college_unit": "College of Agricultural and Life Sciences",\n  "department_division": "Department of Agricultural Economics and Rural Sociology",\n  "degrees": [\n    {\n      "degree": "Ph.D.",\n      "institution": "University of Illinois at Urbana-Champaign",\n      "year": 2013\n    },\n    {\n      "degree": "M.S.",\n      "institution": "Illinois State University",\n      "year": 2006\n    },\n    {\n      "degree": "B.S.",\n      "institution": "Universidad de la Sabana",\n      "year": 2001\n    }\n  ],\n  "research_focus_areas": [\n    "A better understanding of volatility and its effect on agribusiness supply chains (marketing strategies, performance, industrial organization)",\n    "Evaluation of risk management instruments (futures, options, insurance, market microstructure)",\n    "Application of new tools to measure and evaluate increased uncertainty by using a combination of marketing, economics and finance theory with quantitative research methods"\n  ],\n  "photo_url": null\n}\n```', 'traceback': 'Traceback (most recent call last):\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/src/nodes.py", line 474, in extract_data\n    extracted_profile = ProfileData(**target_obj)\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/.venv/lib/python3.9/site-packages/pydantic/main.py", line 243, in __init__\n    validated_self = self.__pydantic_validator__.validate_python(data, self_instance=self)\npydantic_core._pydantic_core.ValidationError: 3 validation errors for ProfileData\ndegrees.0\n  Input should be a valid string [type=string_type, input_value={\'degree\': \'Ph.D.\', \'inst...hampaign\', \'year\': 2013}, input_type=dict]\n    For further information visit https://errors.pydantic.dev/2.11/v/string_type\ndegrees.1\n  Input should be a valid string [type=string_type, input_value={\'degree\': \'M.S.\', \'insti...iversity\', \'year\': 2006}, input_type=dict]\n    For further information visit https://errors.pydantic.dev/2.11/v/string_type\ndegrees.2\n  Input should be a valid string [type=string_type, input_value={\'degree\': \'B.S.\', \'insti...a Sabana\', \'year\': 2001}, input_type=dict]\n    For further information visit https://errors.pydantic.dev/2.11/v/string_type\n'}</t>
+          <t>{'exception_type': 'HTTPError', 'message': '404 Client Error: Not Found for url: https://www.uidaho.edu/cals/agricultural-economics-and-rural-sociology/our-people/paul-lewin', 'status_code': 404, 'traceback': 'Traceback (most recent call last):\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/src/nodes.py", line 88, in fetch_html\n    response.raise_for_status()  # Raise HTTPError for bad responses (4xx or 5xx)\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/.venv/lib/python3.9/site-packages/requests/models.py", line 1024, in raise_for_status\n    raise HTTPError(http_error_msg, response=self)\nrequests.exceptions.HTTPError: 404 Client Error: Not Found for url: https://www.uidaho.edu/cals/agricultural-economics-and-rural-sociology/our-people/paul-lewin\n'}</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>profile-thread-047df88e-28c8-4586-b00b-8ca4b7ea5322</t>
+          <t>profile-thread-b3a8e2da-4b0c-49bd-a719-044545da9d42</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>https://www.uidaho.edu/cals/animal-veterinary-and-food-sciences/our-people/andrzej-paszczynski</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Failed to fetch URL</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>{'exception_type': 'HTTPError', 'message': '404 Client Error: Not Found for url: https://www.uidaho.edu/cals/animal-veterinary-and-food-sciences/our-people/andrzej-paszczynski', 'status_code': 404, 'traceback': 'Traceback (most recent call last):\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/src/nodes.py", line 88, in fetch_html\n    response.raise_for_status()  # Raise HTTPError for bad responses (4xx or 5xx)\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/.venv/lib/python3.9/site-packages/requests/models.py", line 1024, in raise_for_status\n    raise HTTPError(http_error_msg, response=self)\nrequests.exceptions.HTTPError: 404 Client Error: Not Found for url: https://www.uidaho.edu/cals/animal-veterinary-and-food-sciences/our-people/andrzej-paszczynski\n'}</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>profile-thread-6d6897ba-da41-42a9-b5bf-0b00e4783c79</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>https://www.uidaho.edu/cals/animal-veterinary-and-food-sciences/our-people/barbara-nielsen</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Failed to fetch URL</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>{'exception_type': 'HTTPError', 'message': '404 Client Error: Not Found for url: https://www.uidaho.edu/cals/animal-veterinary-and-food-sciences/our-people/barbara-nielsen', 'status_code': 404, 'traceback': 'Traceback (most recent call last):\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/src/nodes.py", line 88, in fetch_html\n    response.raise_for_status()  # Raise HTTPError for bad responses (4xx or 5xx)\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/.venv/lib/python3.9/site-packages/requests/models.py", line 1024, in raise_for_status\n    raise HTTPError(http_error_msg, response=self)\nrequests.exceptions.HTTPError: 404 Client Error: Not Found for url: https://www.uidaho.edu/cals/animal-veterinary-and-food-sciences/our-people/barbara-nielsen\n'}</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>profile-thread-0049fa1d-9edd-4f45-ad28-aef5bef13f4f</t>
         </is>
       </c>
     </row>

--- a/output/extracted_profiles_errors.xlsx
+++ b/output/extracted_profiles_errors.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,14 +473,14 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>profile-thread-7388a4a3-91b5-42a4-a1e2-7b295561673c</t>
+          <t>profile-thread-b85ee111-52ab-430d-828a-e64be5aab7e4</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://www.uidaho.edu/cals/people/mark-mcguire</t>
+          <t>https://www.uidaho.edu/cals/people/erinn-cruz</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -490,19 +490,19 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'exception_type': 'HTTPError', 'message': '404 Client Error: Not Found for url: https://www.uidaho.edu/cals/people/mark-mcguire', 'status_code': 404, 'traceback': 'Traceback (most recent call last):\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/src/nodes.py", line 88, in fetch_html\n    response.raise_for_status()  # Raise HTTPError for bad responses (4xx or 5xx)\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/.venv/lib/python3.9/site-packages/requests/models.py", line 1024, in raise_for_status\n    raise HTTPError(http_error_msg, response=self)\nrequests.exceptions.HTTPError: 404 Client Error: Not Found for url: https://www.uidaho.edu/cals/people/mark-mcguire\n'}</t>
+          <t>{'exception_type': 'HTTPError', 'message': '404 Client Error: Not Found for url: https://www.uidaho.edu/cals/people/erinn-cruz', 'status_code': 404, 'traceback': 'Traceback (most recent call last):\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/src/nodes.py", line 88, in fetch_html\n    response.raise_for_status()  # Raise HTTPError for bad responses (4xx or 5xx)\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/.venv/lib/python3.9/site-packages/requests/models.py", line 1024, in raise_for_status\n    raise HTTPError(http_error_msg, response=self)\nrequests.exceptions.HTTPError: 404 Client Error: Not Found for url: https://www.uidaho.edu/cals/people/erinn-cruz\n'}</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>profile-thread-149f4e6a-3b71-42e1-8e2d-781b89405e91</t>
+          <t>profile-thread-b40654af-c53d-4902-ba27-14a538a2e99e</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://www.uidaho.edu/cals/agricultural-economics-and-rural-sociology/our-people/paul-lewin</t>
+          <t>https://www.uidaho.edu/cals/people/mark-mcguire</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -512,19 +512,19 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{'exception_type': 'HTTPError', 'message': '404 Client Error: Not Found for url: https://www.uidaho.edu/cals/agricultural-economics-and-rural-sociology/our-people/paul-lewin', 'status_code': 404, 'traceback': 'Traceback (most recent call last):\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/src/nodes.py", line 88, in fetch_html\n    response.raise_for_status()  # Raise HTTPError for bad responses (4xx or 5xx)\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/.venv/lib/python3.9/site-packages/requests/models.py", line 1024, in raise_for_status\n    raise HTTPError(http_error_msg, response=self)\nrequests.exceptions.HTTPError: 404 Client Error: Not Found for url: https://www.uidaho.edu/cals/agricultural-economics-and-rural-sociology/our-people/paul-lewin\n'}</t>
+          <t>{'exception_type': 'HTTPError', 'message': '404 Client Error: Not Found for url: https://www.uidaho.edu/cals/people/mark-mcguire', 'status_code': 404, 'traceback': 'Traceback (most recent call last):\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/src/nodes.py", line 88, in fetch_html\n    response.raise_for_status()  # Raise HTTPError for bad responses (4xx or 5xx)\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/.venv/lib/python3.9/site-packages/requests/models.py", line 1024, in raise_for_status\n    raise HTTPError(http_error_msg, response=self)\nrequests.exceptions.HTTPError: 404 Client Error: Not Found for url: https://www.uidaho.edu/cals/people/mark-mcguire\n'}</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>profile-thread-b3a8e2da-4b0c-49bd-a719-044545da9d42</t>
+          <t>profile-thread-0b30d9d6-7f46-438b-bde0-e0a14c0933bb</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://www.uidaho.edu/cals/animal-veterinary-and-food-sciences/our-people/andrzej-paszczynski</t>
+          <t>https://www.uidaho.edu/cals/people/tenley-burke</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -534,34 +534,1354 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>{'exception_type': 'HTTPError', 'message': '404 Client Error: Not Found for url: https://www.uidaho.edu/cals/animal-veterinary-and-food-sciences/our-people/andrzej-paszczynski', 'status_code': 404, 'traceback': 'Traceback (most recent call last):\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/src/nodes.py", line 88, in fetch_html\n    response.raise_for_status()  # Raise HTTPError for bad responses (4xx or 5xx)\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/.venv/lib/python3.9/site-packages/requests/models.py", line 1024, in raise_for_status\n    raise HTTPError(http_error_msg, response=self)\nrequests.exceptions.HTTPError: 404 Client Error: Not Found for url: https://www.uidaho.edu/cals/animal-veterinary-and-food-sciences/our-people/andrzej-paszczynski\n'}</t>
+          <t>{'exception_type': 'HTTPError', 'message': '404 Client Error: Not Found for url: https://www.uidaho.edu/cals/people/tenley-burke', 'status_code': 404, 'traceback': 'Traceback (most recent call last):\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/src/nodes.py", line 88, in fetch_html\n    response.raise_for_status()  # Raise HTTPError for bad responses (4xx or 5xx)\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/.venv/lib/python3.9/site-packages/requests/models.py", line 1024, in raise_for_status\n    raise HTTPError(http_error_msg, response=self)\nrequests.exceptions.HTTPError: 404 Client Error: Not Found for url: https://www.uidaho.edu/cals/people/tenley-burke\n'}</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>profile-thread-6d6897ba-da41-42a9-b5bf-0b00e4783c79</t>
+          <t>profile-thread-ab9df044-8c62-4c0e-9038-cc9c069b0ff9</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>https://www.uidaho.edu/cals/agricultural-education-leadership-and-communications/our-people/clara-leigh-evans</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Failed to fetch URL</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>{'exception_type': 'HTTPError', 'message': '404 Client Error: Not Found for url: https://www.uidaho.edu/cals/agricultural-education-leadership-and-communications/our-people/clara-leigh-evans', 'status_code': 404, 'traceback': 'Traceback (most recent call last):\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/src/nodes.py", line 88, in fetch_html\n    response.raise_for_status()  # Raise HTTPError for bad responses (4xx or 5xx)\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/.venv/lib/python3.9/site-packages/requests/models.py", line 1024, in raise_for_status\n    raise HTTPError(http_error_msg, response=self)\nrequests.exceptions.HTTPError: 404 Client Error: Not Found for url: https://www.uidaho.edu/cals/agricultural-education-leadership-and-communications/our-people/clara-leigh-evans\n'}</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>profile-thread-d95c4e21-5795-4759-871c-686fde350582</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>https://www.uidaho.edu/cals/agricultural-economics-and-rural-sociology/our-people/paul-lewin</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Failed to fetch URL</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>{'exception_type': 'HTTPError', 'message': '404 Client Error: Not Found for url: https://www.uidaho.edu/cals/agricultural-economics-and-rural-sociology/our-people/paul-lewin', 'status_code': 404, 'traceback': 'Traceback (most recent call last):\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/src/nodes.py", line 88, in fetch_html\n    response.raise_for_status()  # Raise HTTPError for bad responses (4xx or 5xx)\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/.venv/lib/python3.9/site-packages/requests/models.py", line 1024, in raise_for_status\n    raise HTTPError(http_error_msg, response=self)\nrequests.exceptions.HTTPError: 404 Client Error: Not Found for url: https://www.uidaho.edu/cals/agricultural-economics-and-rural-sociology/our-people/paul-lewin\n'}</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>profile-thread-d1d2dd84-956e-4a12-8b91-10795eec77c6</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>https://www.uidaho.edu/cals/animal-veterinary-and-food-sciences/our-people/andrzej-paszczynski</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Failed to fetch URL</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>{'exception_type': 'HTTPError', 'message': '404 Client Error: Not Found for url: https://www.uidaho.edu/cals/animal-veterinary-and-food-sciences/our-people/andrzej-paszczynski', 'status_code': 404, 'traceback': 'Traceback (most recent call last):\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/src/nodes.py", line 88, in fetch_html\n    response.raise_for_status()  # Raise HTTPError for bad responses (4xx or 5xx)\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/.venv/lib/python3.9/site-packages/requests/models.py", line 1024, in raise_for_status\n    raise HTTPError(http_error_msg, response=self)\nrequests.exceptions.HTTPError: 404 Client Error: Not Found for url: https://www.uidaho.edu/cals/animal-veterinary-and-food-sciences/our-people/andrzej-paszczynski\n'}</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>profile-thread-8384a0db-1c67-4f4f-a886-6e5953fed8c7</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>https://www.uidaho.edu/cals/animal-veterinary-and-food-sciences/our-people/barbara-nielsen</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Failed to fetch URL</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Failed to fetch URL</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>{'exception_type': 'HTTPError', 'message': '404 Client Error: Not Found for url: https://www.uidaho.edu/cals/animal-veterinary-and-food-sciences/our-people/barbara-nielsen', 'status_code': 404, 'traceback': 'Traceback (most recent call last):\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/src/nodes.py", line 88, in fetch_html\n    response.raise_for_status()  # Raise HTTPError for bad responses (4xx or 5xx)\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/.venv/lib/python3.9/site-packages/requests/models.py", line 1024, in raise_for_status\n    raise HTTPError(http_error_msg, response=self)\nrequests.exceptions.HTTPError: 404 Client Error: Not Found for url: https://www.uidaho.edu/cals/animal-veterinary-and-food-sciences/our-people/barbara-nielsen\n'}</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>profile-thread-0049fa1d-9edd-4f45-ad28-aef5bef13f4f</t>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>profile-thread-03627bf9-a7b4-4123-9a5d-00a3ce71738f</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>https://www.uidaho.edu/cals/animal-veterinary-and-food-sciences/our-people/haedun-kim</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Failed to fetch URL</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>{'exception_type': 'HTTPError', 'message': '404 Client Error: Not Found for url: https://www.uidaho.edu/cals/animal-veterinary-and-food-sciences/our-people/haedun-kim', 'status_code': 404, 'traceback': 'Traceback (most recent call last):\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/src/nodes.py", line 88, in fetch_html\n    response.raise_for_status()  # Raise HTTPError for bad responses (4xx or 5xx)\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/.venv/lib/python3.9/site-packages/requests/models.py", line 1024, in raise_for_status\n    raise HTTPError(http_error_msg, response=self)\nrequests.exceptions.HTTPError: 404 Client Error: Not Found for url: https://www.uidaho.edu/cals/animal-veterinary-and-food-sciences/our-people/haedun-kim\n'}</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>profile-thread-5069c5db-f91a-49ea-b842-d5cb9b905a70</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>https://www.uidaho.edu/cals/animal-veterinary-and-food-sciences/our-people/matt-powell</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Failed to fetch URL</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>{'exception_type': 'HTTPError', 'message': '404 Client Error: Not Found for url: https://www.uidaho.edu/cals/animal-veterinary-and-food-sciences/our-people/matt-powell', 'status_code': 404, 'traceback': 'Traceback (most recent call last):\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/src/nodes.py", line 88, in fetch_html\n    response.raise_for_status()  # Raise HTTPError for bad responses (4xx or 5xx)\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/.venv/lib/python3.9/site-packages/requests/models.py", line 1024, in raise_for_status\n    raise HTTPError(http_error_msg, response=self)\nrequests.exceptions.HTTPError: 404 Client Error: Not Found for url: https://www.uidaho.edu/cals/animal-veterinary-and-food-sciences/our-people/matt-powell\n'}</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>profile-thread-bfccc0a7-f986-46e6-83d4-5571a617557b</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>https://www.uidaho.edu/cals/animal-veterinary-and-food-sciences/our-people/pedram-rezamand</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Failed to fetch URL</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>{'exception_type': 'HTTPError', 'message': '404 Client Error: Not Found for url: https://www.uidaho.edu/cals/animal-veterinary-and-food-sciences/our-people/pedram-rezamand', 'status_code': 404, 'traceback': 'Traceback (most recent call last):\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/src/nodes.py", line 88, in fetch_html\n    response.raise_for_status()  # Raise HTTPError for bad responses (4xx or 5xx)\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/.venv/lib/python3.9/site-packages/requests/models.py", line 1024, in raise_for_status\n    raise HTTPError(http_error_msg, response=self)\nrequests.exceptions.HTTPError: 404 Client Error: Not Found for url: https://www.uidaho.edu/cals/animal-veterinary-and-food-sciences/our-people/pedram-rezamand\n'}</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>profile-thread-34accbc1-8078-4718-92f5-0e5be0b84441</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>https://www.uidaho.edu/cals/animal-veterinary-and-food-sciences/our-people/robert-collier</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Failed to fetch URL</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>{'exception_type': 'HTTPError', 'message': '404 Client Error: Not Found for url: https://www.uidaho.edu/cals/animal-veterinary-and-food-sciences/our-people/robert-collier', 'status_code': 404, 'traceback': 'Traceback (most recent call last):\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/src/nodes.py", line 88, in fetch_html\n    response.raise_for_status()  # Raise HTTPError for bad responses (4xx or 5xx)\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/.venv/lib/python3.9/site-packages/requests/models.py", line 1024, in raise_for_status\n    raise HTTPError(http_error_msg, response=self)\nrequests.exceptions.HTTPError: 404 Client Error: Not Found for url: https://www.uidaho.edu/cals/animal-veterinary-and-food-sciences/our-people/robert-collier\n'}</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>profile-thread-d27e3c1b-a9e8-4234-9105-3b59f9b95c8a</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>https://www.uidaho.edu/cals/animal-veterinary-and-food-sciences/our-people/ronald-hardy</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Failed to fetch URL</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>{'exception_type': 'HTTPError', 'message': '404 Client Error: Not Found for url: https://www.uidaho.edu/cals/animal-veterinary-and-food-sciences/our-people/ronald-hardy', 'status_code': 404, 'traceback': 'Traceback (most recent call last):\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/src/nodes.py", line 88, in fetch_html\n    response.raise_for_status()  # Raise HTTPError for bad responses (4xx or 5xx)\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/.venv/lib/python3.9/site-packages/requests/models.py", line 1024, in raise_for_status\n    raise HTTPError(http_error_msg, response=self)\nrequests.exceptions.HTTPError: 404 Client Error: Not Found for url: https://www.uidaho.edu/cals/animal-veterinary-and-food-sciences/our-people/ronald-hardy\n'}</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>profile-thread-17877b31-722c-45da-82f8-a077b99b1f26</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>https://www.uidaho.edu/cals/animal-veterinary-and-food-sciences/our-people/vikas-kumar</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Failed to fetch URL</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>{'exception_type': 'HTTPError', 'message': '404 Client Error: Not Found for url: https://www.uidaho.edu/cals/animal-veterinary-and-food-sciences/our-people/vikas-kumar', 'status_code': 404, 'traceback': 'Traceback (most recent call last):\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/src/nodes.py", line 88, in fetch_html\n    response.raise_for_status()  # Raise HTTPError for bad responses (4xx or 5xx)\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/.venv/lib/python3.9/site-packages/requests/models.py", line 1024, in raise_for_status\n    raise HTTPError(http_error_msg, response=self)\nrequests.exceptions.HTTPError: 404 Client Error: Not Found for url: https://www.uidaho.edu/cals/animal-veterinary-and-food-sciences/our-people/vikas-kumar\n'}</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>profile-thread-878b6782-e3d2-4d4e-8210-5f6204512c28</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>https://www.uidaho.edu/cals/entomology-plant-pathology-and-nematology/our-people/saad-hafez</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Failed to fetch URL</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>{'exception_type': 'HTTPError', 'message': '404 Client Error: Not Found for url: https://www.uidaho.edu/cals/entomology-plant-pathology-and-nematology/our-people/saad-hafez', 'status_code': 404, 'traceback': 'Traceback (most recent call last):\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/src/nodes.py", line 88, in fetch_html\n    response.raise_for_status()  # Raise HTTPError for bad responses (4xx or 5xx)\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/.venv/lib/python3.9/site-packages/requests/models.py", line 1024, in raise_for_status\n    raise HTTPError(http_error_msg, response=self)\nrequests.exceptions.HTTPError: 404 Client Error: Not Found for url: https://www.uidaho.edu/cals/entomology-plant-pathology-and-nematology/our-people/saad-hafez\n'}</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>profile-thread-c24312e3-4807-40f8-b828-303155e441d5</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>https://www.uidaho.edu/cals/family-and-consumer-sciences/our-people/trevor-white</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Failed to fetch URL</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>{'exception_type': 'HTTPError', 'message': '404 Client Error: Not Found for url: https://www.uidaho.edu/cals/family-and-consumer-sciences/our-people/trevor-white', 'status_code': 404, 'traceback': 'Traceback (most recent call last):\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/src/nodes.py", line 88, in fetch_html\n    response.raise_for_status()  # Raise HTTPError for bad responses (4xx or 5xx)\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/.venv/lib/python3.9/site-packages/requests/models.py", line 1024, in raise_for_status\n    raise HTTPError(http_error_msg, response=self)\nrequests.exceptions.HTTPError: 404 Client Error: Not Found for url: https://www.uidaho.edu/cals/family-and-consumer-sciences/our-people/trevor-white\n'}</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>profile-thread-c0cd31d4-84a3-4d1e-95f7-55e387757ffe</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>https://www.uidaho.edu/cals/plant-sciences/our-people/jonah-kaya</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Failed to fetch URL</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>{'exception_type': 'HTTPError', 'message': '404 Client Error: Not Found for url: https://www.uidaho.edu/cals/plant-sciences/our-people/jonah-kaya', 'status_code': 404, 'traceback': 'Traceback (most recent call last):\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/src/nodes.py", line 88, in fetch_html\n    response.raise_for_status()  # Raise HTTPError for bad responses (4xx or 5xx)\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/.venv/lib/python3.9/site-packages/requests/models.py", line 1024, in raise_for_status\n    raise HTTPError(http_error_msg, response=self)\nrequests.exceptions.HTTPError: 404 Client Error: Not Found for url: https://www.uidaho.edu/cals/plant-sciences/our-people/jonah-kaya\n'}</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>profile-thread-79135d10-9d90-4981-9110-40b62e530fc8</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>https://www.uidaho.edu/cals/plant-sciences/our-people/pamela-hutchinson</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Failed to fetch URL</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>{'exception_type': 'HTTPError', 'message': '404 Client Error: Not Found for url: https://www.uidaho.edu/cals/plant-sciences/our-people/pamela-hutchinson', 'status_code': 404, 'traceback': 'Traceback (most recent call last):\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/src/nodes.py", line 88, in fetch_html\n    response.raise_for_status()  # Raise HTTPError for bad responses (4xx or 5xx)\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/.venv/lib/python3.9/site-packages/requests/models.py", line 1024, in raise_for_status\n    raise HTTPError(http_error_msg, response=self)\nrequests.exceptions.HTTPError: 404 Client Error: Not Found for url: https://www.uidaho.edu/cals/plant-sciences/our-people/pamela-hutchinson\n'}</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>profile-thread-72d6b157-5a38-4d2c-97d4-5c2c78442d04</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>https://www.uidaho.edu/cals/plant-sciences/our-people/prayusha-bhattarai</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Failed to fetch URL</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>{'exception_type': 'HTTPError', 'message': '404 Client Error: Not Found for url: https://www.uidaho.edu/cals/plant-sciences/our-people/prayusha-bhattarai', 'status_code': 404, 'traceback': 'Traceback (most recent call last):\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/src/nodes.py", line 88, in fetch_html\n    response.raise_for_status()  # Raise HTTPError for bad responses (4xx or 5xx)\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/.venv/lib/python3.9/site-packages/requests/models.py", line 1024, in raise_for_status\n    raise HTTPError(http_error_msg, response=self)\nrequests.exceptions.HTTPError: 404 Client Error: Not Found for url: https://www.uidaho.edu/cals/plant-sciences/our-people/prayusha-bhattarai\n'}</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>profile-thread-0cf2f4c9-9d16-4035-a870-e6224663ee7c</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>https://www.uidaho.edu/cals/plant-sciences/our-people/randy-lawrence</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Failed to fetch URL</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>{'exception_type': 'HTTPError', 'message': '404 Client Error: Not Found for url: https://www.uidaho.edu/cals/plant-sciences/our-people/randy-lawrence', 'status_code': 404, 'traceback': 'Traceback (most recent call last):\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/src/nodes.py", line 88, in fetch_html\n    response.raise_for_status()  # Raise HTTPError for bad responses (4xx or 5xx)\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/.venv/lib/python3.9/site-packages/requests/models.py", line 1024, in raise_for_status\n    raise HTTPError(http_error_msg, response=self)\nrequests.exceptions.HTTPError: 404 Client Error: Not Found for url: https://www.uidaho.edu/cals/plant-sciences/our-people/randy-lawrence\n'}</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>profile-thread-ba56608c-1c60-4155-ab08-4acf1a5d81b1</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>https://www.uidaho.edu/cals/soil-and-water-systems/our-people/heather-ireton</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Failed to fetch URL</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>{'exception_type': 'HTTPError', 'message': '404 Client Error: Not Found for url: https://www.uidaho.edu/cals/soil-and-water-systems/our-people/heather-ireton', 'status_code': 404, 'traceback': 'Traceback (most recent call last):\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/src/nodes.py", line 88, in fetch_html\n    response.raise_for_status()  # Raise HTTPError for bad responses (4xx or 5xx)\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/.venv/lib/python3.9/site-packages/requests/models.py", line 1024, in raise_for_status\n    raise HTTPError(http_error_msg, response=self)\nrequests.exceptions.HTTPError: 404 Client Error: Not Found for url: https://www.uidaho.edu/cals/soil-and-water-systems/our-people/heather-ireton\n'}</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>profile-thread-16aa3ac7-f649-4cec-9d8c-69b37dda4e64</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>https://www.uidaho.edu/cals/soil-and-water-systems/our-people/isabell-von-rein</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Failed to fetch URL</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>{'exception_type': 'HTTPError', 'message': '404 Client Error: Not Found for url: https://www.uidaho.edu/cals/soil-and-water-systems/our-people/isabell-von-rein', 'status_code': 404, 'traceback': 'Traceback (most recent call last):\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/src/nodes.py", line 88, in fetch_html\n    response.raise_for_status()  # Raise HTTPError for bad responses (4xx or 5xx)\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/.venv/lib/python3.9/site-packages/requests/models.py", line 1024, in raise_for_status\n    raise HTTPError(http_error_msg, response=self)\nrequests.exceptions.HTTPError: 404 Client Error: Not Found for url: https://www.uidaho.edu/cals/soil-and-water-systems/our-people/isabell-von-rein\n'}</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>profile-thread-cecdbb9a-3589-492f-91af-3f40b5a8acab</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>https://www.uidaho.edu/cals/soil-and-water-systems/our-people/jane-lucas</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Failed to fetch URL</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>{'exception_type': 'HTTPError', 'message': '404 Client Error: Not Found for url: https://www.uidaho.edu/cals/soil-and-water-systems/our-people/jane-lucas', 'status_code': 404, 'traceback': 'Traceback (most recent call last):\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/src/nodes.py", line 88, in fetch_html\n    response.raise_for_status()  # Raise HTTPError for bad responses (4xx or 5xx)\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/.venv/lib/python3.9/site-packages/requests/models.py", line 1024, in raise_for_status\n    raise HTTPError(http_error_msg, response=self)\nrequests.exceptions.HTTPError: 404 Client Error: Not Found for url: https://www.uidaho.edu/cals/soil-and-water-systems/our-people/jane-lucas\n'}</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>profile-thread-c24ccbbd-9362-4287-91a7-0643bbe08fc4</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>https://www.uidaho.edu/cals/seed-potato-germplasm-program/our-people/jenny-durrin</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Failed to fetch URL</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>{'exception_type': 'HTTPError', 'message': '404 Client Error: Not Found for url: https://www.uidaho.edu/cals/seed-potato-germplasm-program/our-people/jenny-durrin', 'status_code': 404, 'traceback': 'Traceback (most recent call last):\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/src/nodes.py", line 88, in fetch_html\n    response.raise_for_status()  # Raise HTTPError for bad responses (4xx or 5xx)\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/.venv/lib/python3.9/site-packages/requests/models.py", line 1024, in raise_for_status\n    raise HTTPError(http_error_msg, response=self)\nrequests.exceptions.HTTPError: 404 Client Error: Not Found for url: https://www.uidaho.edu/cals/seed-potato-germplasm-program/our-people/jenny-durrin\n'}</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>profile-thread-754d2393-88f5-4483-9c9f-837d3ec458fc</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>https://www.uidaho.edu/extension/our-people/a-b/andrew-bingham</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Failed to fetch URL</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>{'exception_type': 'HTTPError', 'message': '404 Client Error: Not Found for url: https://www.uidaho.edu/extension/our-people/a-b/andrew-bingham', 'status_code': 404, 'traceback': 'Traceback (most recent call last):\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/src/nodes.py", line 88, in fetch_html\n    response.raise_for_status()  # Raise HTTPError for bad responses (4xx or 5xx)\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/.venv/lib/python3.9/site-packages/requests/models.py", line 1024, in raise_for_status\n    raise HTTPError(http_error_msg, response=self)\nrequests.exceptions.HTTPError: 404 Client Error: Not Found for url: https://www.uidaho.edu/extension/our-people/a-b/andrew-bingham\n'}</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>profile-thread-931fb58f-f916-4820-b231-4beb2d460cfa</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>https://www.uidaho.edu/extension/our-people/a-b/erin-argyle</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Failed to fetch URL</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>{'exception_type': 'HTTPError', 'message': '404 Client Error: Not Found for url: https://www.uidaho.edu/extension/our-people/a-b/erin-argyle', 'status_code': 404, 'traceback': 'Traceback (most recent call last):\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/src/nodes.py", line 88, in fetch_html\n    response.raise_for_status()  # Raise HTTPError for bad responses (4xx or 5xx)\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/.venv/lib/python3.9/site-packages/requests/models.py", line 1024, in raise_for_status\n    raise HTTPError(http_error_msg, response=self)\nrequests.exceptions.HTTPError: 404 Client Error: Not Found for url: https://www.uidaho.edu/extension/our-people/a-b/erin-argyle\n'}</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>profile-thread-9aa0b20f-256b-4aee-983b-80f2e9e7dfd0</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>https://www.uidaho.edu/extension/our-people/a-b/julie-buck</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Failed to fetch URL</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>{'exception_type': 'HTTPError', 'message': '404 Client Error: Not Found for url: https://www.uidaho.edu/extension/our-people/a-b/julie-buck', 'status_code': 404, 'traceback': 'Traceback (most recent call last):\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/src/nodes.py", line 88, in fetch_html\n    response.raise_for_status()  # Raise HTTPError for bad responses (4xx or 5xx)\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/.venv/lib/python3.9/site-packages/requests/models.py", line 1024, in raise_for_status\n    raise HTTPError(http_error_msg, response=self)\nrequests.exceptions.HTTPError: 404 Client Error: Not Found for url: https://www.uidaho.edu/extension/our-people/a-b/julie-buck\n'}</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>profile-thread-63d93f50-1ba1-4033-ab36-c57df1edd86f</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>https://www.uidaho.edu/extension/our-people/a-b/madison-anderson</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Failed to fetch URL</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>{'exception_type': 'HTTPError', 'message': '404 Client Error: Not Found for url: https://www.uidaho.edu/extension/our-people/a-b/madison-anderson', 'status_code': 404, 'traceback': 'Traceback (most recent call last):\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/src/nodes.py", line 88, in fetch_html\n    response.raise_for_status()  # Raise HTTPError for bad responses (4xx or 5xx)\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/.venv/lib/python3.9/site-packages/requests/models.py", line 1024, in raise_for_status\n    raise HTTPError(http_error_msg, response=self)\nrequests.exceptions.HTTPError: 404 Client Error: Not Found for url: https://www.uidaho.edu/extension/our-people/a-b/madison-anderson\n'}</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>profile-thread-385e6bc0-5b77-4d19-8e53-81249ce5455a</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>https://www.uidaho.edu/extension/our-people/a-b/susan-bell</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Failed to fetch URL</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>{'exception_type': 'HTTPError', 'message': '404 Client Error: Not Found for url: https://www.uidaho.edu/extension/our-people/a-b/susan-bell', 'status_code': 404, 'traceback': 'Traceback (most recent call last):\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/src/nodes.py", line 88, in fetch_html\n    response.raise_for_status()  # Raise HTTPError for bad responses (4xx or 5xx)\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/.venv/lib/python3.9/site-packages/requests/models.py", line 1024, in raise_for_status\n    raise HTTPError(http_error_msg, response=self)\nrequests.exceptions.HTTPError: 404 Client Error: Not Found for url: https://www.uidaho.edu/extension/our-people/a-b/susan-bell\n'}</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>profile-thread-023ea9fa-84ba-4594-a679-9d813adb212f</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>https://www.uidaho.edu/extension/our-people/a-b/whitney-beard</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Failed to fetch URL</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>{'exception_type': 'HTTPError', 'message': '404 Client Error: Not Found for url: https://www.uidaho.edu/extension/our-people/a-b/whitney-beard', 'status_code': 404, 'traceback': 'Traceback (most recent call last):\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/src/nodes.py", line 88, in fetch_html\n    response.raise_for_status()  # Raise HTTPError for bad responses (4xx or 5xx)\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/.venv/lib/python3.9/site-packages/requests/models.py", line 1024, in raise_for_status\n    raise HTTPError(http_error_msg, response=self)\nrequests.exceptions.HTTPError: 404 Client Error: Not Found for url: https://www.uidaho.edu/extension/our-people/a-b/whitney-beard\n'}</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>profile-thread-098040f0-35af-409c-bd11-ab3895e322e7</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>https://www.uidaho.edu/extension/our-people/a-b/cody-beus</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Failed to fetch URL</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>{'exception_type': 'HTTPError', 'message': '404 Client Error: Not Found for url: https://www.uidaho.edu/extension/our-people/a-b/cody-beus', 'status_code': 404, 'traceback': 'Traceback (most recent call last):\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/src/nodes.py", line 88, in fetch_html\n    response.raise_for_status()  # Raise HTTPError for bad responses (4xx or 5xx)\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/.venv/lib/python3.9/site-packages/requests/models.py", line 1024, in raise_for_status\n    raise HTTPError(http_error_msg, response=self)\nrequests.exceptions.HTTPError: 404 Client Error: Not Found for url: https://www.uidaho.edu/extension/our-people/a-b/cody-beus\n'}</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>profile-thread-7976ad7a-7c28-414b-bd3c-32f9f41b7fb2</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>https://www.uidaho.edu/extension/our-people/f-h/jody-harrington</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Failed to fetch URL</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>{'exception_type': 'HTTPError', 'message': '404 Client Error: Not Found for url: https://www.uidaho.edu/extension/our-people/f-h/jody-harrington', 'status_code': 404, 'traceback': 'Traceback (most recent call last):\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/src/nodes.py", line 88, in fetch_html\n    response.raise_for_status()  # Raise HTTPError for bad responses (4xx or 5xx)\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/.venv/lib/python3.9/site-packages/requests/models.py", line 1024, in raise_for_status\n    raise HTTPError(http_error_msg, response=self)\nrequests.exceptions.HTTPError: 404 Client Error: Not Found for url: https://www.uidaho.edu/extension/our-people/f-h/jody-harrington\n'}</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>profile-thread-c392feed-e37e-4296-9e4b-af29379d0c38</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>https://www.uidaho.edu/extension/our-people/f-h/kathyrn-hickok</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Failed to fetch URL</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>{'exception_type': 'HTTPError', 'message': '404 Client Error: Not Found for url: https://www.uidaho.edu/extension/our-people/f-h/kathyrn-hickok', 'status_code': 404, 'traceback': 'Traceback (most recent call last):\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/src/nodes.py", line 88, in fetch_html\n    response.raise_for_status()  # Raise HTTPError for bad responses (4xx or 5xx)\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/.venv/lib/python3.9/site-packages/requests/models.py", line 1024, in raise_for_status\n    raise HTTPError(http_error_msg, response=self)\nrequests.exceptions.HTTPError: 404 Client Error: Not Found for url: https://www.uidaho.edu/extension/our-people/f-h/kathyrn-hickok\n'}</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>profile-thread-5ad37d99-7fe5-4aba-8687-aa8815fba152</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>https://www.uidaho.edu/extension/our-people/f-h/polly-grasham</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Failed to fetch URL</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>{'exception_type': 'HTTPError', 'message': '404 Client Error: Not Found for url: https://www.uidaho.edu/extension/our-people/f-h/polly-grasham', 'status_code': 404, 'traceback': 'Traceback (most recent call last):\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/src/nodes.py", line 88, in fetch_html\n    response.raise_for_status()  # Raise HTTPError for bad responses (4xx or 5xx)\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/.venv/lib/python3.9/site-packages/requests/models.py", line 1024, in raise_for_status\n    raise HTTPError(http_error_msg, response=self)\nrequests.exceptions.HTTPError: 404 Client Error: Not Found for url: https://www.uidaho.edu/extension/our-people/f-h/polly-grasham\n'}</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>profile-thread-d511a6f1-63aa-4e4a-9561-53667282d004</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>https://www.uidaho.edu/extension/our-people/f-h/stephanie-hamblin</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Failed to fetch URL</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>{'exception_type': 'HTTPError', 'message': '404 Client Error: Not Found for url: https://www.uidaho.edu/extension/our-people/f-h/stephanie-hamblin', 'status_code': 404, 'traceback': 'Traceback (most recent call last):\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/src/nodes.py", line 88, in fetch_html\n    response.raise_for_status()  # Raise HTTPError for bad responses (4xx or 5xx)\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/.venv/lib/python3.9/site-packages/requests/models.py", line 1024, in raise_for_status\n    raise HTTPError(http_error_msg, response=self)\nrequests.exceptions.HTTPError: 404 Client Error: Not Found for url: https://www.uidaho.edu/extension/our-people/f-h/stephanie-hamblin\n'}</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>profile-thread-54330b07-a327-431c-a972-fac4c1af301c</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>https://www.uidaho.edu/extension/our-people/f-h/danielle-evans</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Failed to fetch URL</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>{'exception_type': 'HTTPError', 'message': '404 Client Error: Not Found for url: https://www.uidaho.edu/extension/our-people/f-h/danielle-evans', 'status_code': 404, 'traceback': 'Traceback (most recent call last):\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/src/nodes.py", line 88, in fetch_html\n    response.raise_for_status()  # Raise HTTPError for bad responses (4xx or 5xx)\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/.venv/lib/python3.9/site-packages/requests/models.py", line 1024, in raise_for_status\n    raise HTTPError(http_error_msg, response=self)\nrequests.exceptions.HTTPError: 404 Client Error: Not Found for url: https://www.uidaho.edu/extension/our-people/f-h/danielle-evans\n'}</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>profile-thread-c96223c2-7dab-4f59-ae41-2b9e7998cbd3</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>https://www.uidaho.edu/extension/our-people/f-h/kathy-garofano</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Failed to fetch URL</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>{'exception_type': 'HTTPError', 'message': '404 Client Error: Not Found for url: https://www.uidaho.edu/extension/our-people/f-h/kathy-garofano', 'status_code': 404, 'traceback': 'Traceback (most recent call last):\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/src/nodes.py", line 88, in fetch_html\n    response.raise_for_status()  # Raise HTTPError for bad responses (4xx or 5xx)\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/.venv/lib/python3.9/site-packages/requests/models.py", line 1024, in raise_for_status\n    raise HTTPError(http_error_msg, response=self)\nrequests.exceptions.HTTPError: 404 Client Error: Not Found for url: https://www.uidaho.edu/extension/our-people/f-h/kathy-garofano\n'}</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>profile-thread-75764c1e-ee17-4a53-b180-ad5a8398afa0</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>https://www.uidaho.edu/extension/our-people/f-h/nav-ghimire</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Failed to fetch URL</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>{'exception_type': 'HTTPError', 'message': '404 Client Error: Not Found for url: https://www.uidaho.edu/extension/our-people/f-h/nav-ghimire', 'status_code': 404, 'traceback': 'Traceback (most recent call last):\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/src/nodes.py", line 88, in fetch_html\n    response.raise_for_status()  # Raise HTTPError for bad responses (4xx or 5xx)\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/.venv/lib/python3.9/site-packages/requests/models.py", line 1024, in raise_for_status\n    raise HTTPError(http_error_msg, response=self)\nrequests.exceptions.HTTPError: 404 Client Error: Not Found for url: https://www.uidaho.edu/extension/our-people/f-h/nav-ghimire\n'}</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>profile-thread-3634ecfd-9739-419b-987e-14e696fe41b0</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>https://www.uidaho.edu/extension/our-people/f-h/ronda-hirnyck</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Failed to fetch URL</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>{'exception_type': 'HTTPError', 'message': '404 Client Error: Not Found for url: https://www.uidaho.edu/extension/our-people/f-h/ronda-hirnyck', 'status_code': 404, 'traceback': 'Traceback (most recent call last):\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/src/nodes.py", line 88, in fetch_html\n    response.raise_for_status()  # Raise HTTPError for bad responses (4xx or 5xx)\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/.venv/lib/python3.9/site-packages/requests/models.py", line 1024, in raise_for_status\n    raise HTTPError(http_error_msg, response=self)\nrequests.exceptions.HTTPError: 404 Client Error: Not Found for url: https://www.uidaho.edu/extension/our-people/f-h/ronda-hirnyck\n'}</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>profile-thread-e0656f6c-4230-4318-97bd-c011d86c2dc6</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>https://www.uidaho.edu/extension/our-people/f-h/angie-freel</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Failed to fetch URL</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>{'exception_type': 'HTTPError', 'message': '404 Client Error: Not Found for url: https://www.uidaho.edu/extension/our-people/f-h/angie-freel', 'status_code': 404, 'traceback': 'Traceback (most recent call last):\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/src/nodes.py", line 88, in fetch_html\n    response.raise_for_status()  # Raise HTTPError for bad responses (4xx or 5xx)\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/.venv/lib/python3.9/site-packages/requests/models.py", line 1024, in raise_for_status\n    raise HTTPError(http_error_msg, response=self)\nrequests.exceptions.HTTPError: 404 Client Error: Not Found for url: https://www.uidaho.edu/extension/our-people/f-h/angie-freel\n'}</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>profile-thread-45be05f5-1527-45b7-a1d7-5f3f88505077</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>https://www.uidaho.edu/extension/our-people/i-k/teri-johnson</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Failed to fetch URL</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>{'exception_type': 'HTTPError', 'message': '404 Client Error: Not Found for url: https://www.uidaho.edu/extension/our-people/i-k/teri-johnson', 'status_code': 404, 'traceback': 'Traceback (most recent call last):\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/src/nodes.py", line 88, in fetch_html\n    response.raise_for_status()  # Raise HTTPError for bad responses (4xx or 5xx)\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/.venv/lib/python3.9/site-packages/requests/models.py", line 1024, in raise_for_status\n    raise HTTPError(http_error_msg, response=self)\nrequests.exceptions.HTTPError: 404 Client Error: Not Found for url: https://www.uidaho.edu/extension/our-people/i-k/teri-johnson\n'}</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>profile-thread-91521003-d3c4-43bb-bf50-3a499ab28de7</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>https://www.uidaho.edu/extension/our-people/l-o/shaina-nomee</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Failed to fetch URL</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>{'exception_type': 'HTTPError', 'message': '404 Client Error: Not Found for url: https://www.uidaho.edu/extension/our-people/l-o/shaina-nomee', 'status_code': 404, 'traceback': 'Traceback (most recent call last):\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/src/nodes.py", line 88, in fetch_html\n    response.raise_for_status()  # Raise HTTPError for bad responses (4xx or 5xx)\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/.venv/lib/python3.9/site-packages/requests/models.py", line 1024, in raise_for_status\n    raise HTTPError(http_error_msg, response=self)\nrequests.exceptions.HTTPError: 404 Client Error: Not Found for url: https://www.uidaho.edu/extension/our-people/l-o/shaina-nomee\n'}</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>profile-thread-49dc50c3-7bd3-44fc-8454-6c997094eb33</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>https://www.uidaho.edu/extension/our-people/l-o/jennifer-matthews</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Failed to fetch URL</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>{'exception_type': 'HTTPError', 'message': '404 Client Error: Not Found for url: https://www.uidaho.edu/extension/our-people/l-o/jennifer-matthews', 'status_code': 404, 'traceback': 'Traceback (most recent call last):\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/src/nodes.py", line 88, in fetch_html\n    response.raise_for_status()  # Raise HTTPError for bad responses (4xx or 5xx)\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/.venv/lib/python3.9/site-packages/requests/models.py", line 1024, in raise_for_status\n    raise HTTPError(http_error_msg, response=self)\nrequests.exceptions.HTTPError: 404 Client Error: Not Found for url: https://www.uidaho.edu/extension/our-people/l-o/jennifer-matthews\n'}</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>profile-thread-f10f9698-6011-4c28-bb54-d5582df7f261</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>https://www.uidaho.edu/extension/our-people/l-o/alyssa-brotnov</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Failed to fetch URL</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>{'exception_type': 'HTTPError', 'message': '404 Client Error: Not Found for url: https://www.uidaho.edu/extension/our-people/l-o/alyssa-brotnov', 'status_code': 404, 'traceback': 'Traceback (most recent call last):\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/src/nodes.py", line 88, in fetch_html\n    response.raise_for_status()  # Raise HTTPError for bad responses (4xx or 5xx)\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/.venv/lib/python3.9/site-packages/requests/models.py", line 1024, in raise_for_status\n    raise HTTPError(http_error_msg, response=self)\nrequests.exceptions.HTTPError: 404 Client Error: Not Found for url: https://www.uidaho.edu/extension/our-people/l-o/alyssa-brotnov\n'}</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>profile-thread-c3b3e1e7-8678-4357-9d12-cc85c55a8e61</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>https://www.uidaho.edu/extension/our-people/l-o/hope-newman</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Failed to fetch URL</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>{'exception_type': 'HTTPError', 'message': '404 Client Error: Not Found for url: https://www.uidaho.edu/extension/our-people/l-o/hope-newman', 'status_code': 404, 'traceback': 'Traceback (most recent call last):\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/src/nodes.py", line 88, in fetch_html\n    response.raise_for_status()  # Raise HTTPError for bad responses (4xx or 5xx)\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/.venv/lib/python3.9/site-packages/requests/models.py", line 1024, in raise_for_status\n    raise HTTPError(http_error_msg, response=self)\nrequests.exceptions.HTTPError: 404 Client Error: Not Found for url: https://www.uidaho.edu/extension/our-people/l-o/hope-newman\n'}</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>profile-thread-3337da46-4586-438e-b8fc-5f639e61beff</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>https://www.uidaho.edu/extension/our-people/l-o/jennifer-makinson</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Failed to fetch URL</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>{'exception_type': 'HTTPError', 'message': '404 Client Error: Not Found for url: https://www.uidaho.edu/extension/our-people/l-o/jennifer-makinson', 'status_code': 404, 'traceback': 'Traceback (most recent call last):\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/src/nodes.py", line 88, in fetch_html\n    response.raise_for_status()  # Raise HTTPError for bad responses (4xx or 5xx)\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/.venv/lib/python3.9/site-packages/requests/models.py", line 1024, in raise_for_status\n    raise HTTPError(http_error_msg, response=self)\nrequests.exceptions.HTTPError: 404 Client Error: Not Found for url: https://www.uidaho.edu/extension/our-people/l-o/jennifer-makinson\n'}</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>profile-thread-7059a4c0-aaa5-4a28-a16a-99138259ff87</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>https://www.uidaho.edu/extension/our-people/p-r/sarah-ramirez</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Failed to fetch URL</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>{'exception_type': 'HTTPError', 'message': '404 Client Error: Not Found for url: https://www.uidaho.edu/extension/our-people/p-r/sarah-ramirez', 'status_code': 404, 'traceback': 'Traceback (most recent call last):\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/src/nodes.py", line 88, in fetch_html\n    response.raise_for_status()  # Raise HTTPError for bad responses (4xx or 5xx)\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/.venv/lib/python3.9/site-packages/requests/models.py", line 1024, in raise_for_status\n    raise HTTPError(http_error_msg, response=self)\nrequests.exceptions.HTTPError: 404 Client Error: Not Found for url: https://www.uidaho.edu/extension/our-people/p-r/sarah-ramirez\n'}</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>profile-thread-30cdbc59-c992-49ee-bab0-e06b9649b440</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>https://www.uidaho.edu/extension/our-people/s-t/donna-schwarting</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Failed to fetch URL</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>{'exception_type': 'HTTPError', 'message': '404 Client Error: Not Found for url: https://www.uidaho.edu/extension/our-people/s-t/donna-schwarting', 'status_code': 404, 'traceback': 'Traceback (most recent call last):\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/src/nodes.py", line 88, in fetch_html\n    response.raise_for_status()  # Raise HTTPError for bad responses (4xx or 5xx)\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/.venv/lib/python3.9/site-packages/requests/models.py", line 1024, in raise_for_status\n    raise HTTPError(http_error_msg, response=self)\nrequests.exceptions.HTTPError: 404 Client Error: Not Found for url: https://www.uidaho.edu/extension/our-people/s-t/donna-schwarting\n'}</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>profile-thread-d48dfc10-e271-4734-b80f-a328589f1dd3</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>https://www.uidaho.edu/extension/our-people/s-t/karen-trappet</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Failed to fetch URL</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>{'exception_type': 'HTTPError', 'message': '404 Client Error: Not Found for url: https://www.uidaho.edu/extension/our-people/s-t/karen-trappet', 'status_code': 404, 'traceback': 'Traceback (most recent call last):\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/src/nodes.py", line 88, in fetch_html\n    response.raise_for_status()  # Raise HTTPError for bad responses (4xx or 5xx)\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/.venv/lib/python3.9/site-packages/requests/models.py", line 1024, in raise_for_status\n    raise HTTPError(http_error_msg, response=self)\nrequests.exceptions.HTTPError: 404 Client Error: Not Found for url: https://www.uidaho.edu/extension/our-people/s-t/karen-trappet\n'}</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>profile-thread-10018d22-f567-47ec-bf29-c83a1fa91c07</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>https://www.uidaho.edu/extension/our-people/s-t/kimberly-tate</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Failed to fetch URL</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>{'exception_type': 'HTTPError', 'message': '404 Client Error: Not Found for url: https://www.uidaho.edu/extension/our-people/s-t/kimberly-tate', 'status_code': 404, 'traceback': 'Traceback (most recent call last):\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/src/nodes.py", line 88, in fetch_html\n    response.raise_for_status()  # Raise HTTPError for bad responses (4xx or 5xx)\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/.venv/lib/python3.9/site-packages/requests/models.py", line 1024, in raise_for_status\n    raise HTTPError(http_error_msg, response=self)\nrequests.exceptions.HTTPError: 404 Client Error: Not Found for url: https://www.uidaho.edu/extension/our-people/s-t/kimberly-tate\n'}</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>profile-thread-c594d4a7-8ddf-43fa-8e9f-17b445005c01</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>https://www.uidaho.edu/extension/our-people/s-t/madison-arnzen</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Failed to fetch URL</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>{'exception_type': 'HTTPError', 'message': '404 Client Error: Not Found for url: https://www.uidaho.edu/extension/our-people/s-t/madison-arnzen', 'status_code': 404, 'traceback': 'Traceback (most recent call last):\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/src/nodes.py", line 88, in fetch_html\n    response.raise_for_status()  # Raise HTTPError for bad responses (4xx or 5xx)\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/.venv/lib/python3.9/site-packages/requests/models.py", line 1024, in raise_for_status\n    raise HTTPError(http_error_msg, response=self)\nrequests.exceptions.HTTPError: 404 Client Error: Not Found for url: https://www.uidaho.edu/extension/our-people/s-t/madison-arnzen\n'}</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>profile-thread-6422265f-46e2-4b1d-b6fd-f92862f87eb0</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>https://www.uidaho.edu/extension/our-people/s-t/maureen-toomey</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Failed to fetch URL</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>{'exception_type': 'HTTPError', 'message': '404 Client Error: Not Found for url: https://www.uidaho.edu/extension/our-people/s-t/maureen-toomey', 'status_code': 404, 'traceback': 'Traceback (most recent call last):\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/src/nodes.py", line 88, in fetch_html\n    response.raise_for_status()  # Raise HTTPError for bad responses (4xx or 5xx)\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/.venv/lib/python3.9/site-packages/requests/models.py", line 1024, in raise_for_status\n    raise HTTPError(http_error_msg, response=self)\nrequests.exceptions.HTTPError: 404 Client Error: Not Found for url: https://www.uidaho.edu/extension/our-people/s-t/maureen-toomey\n'}</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>profile-thread-c8e825fb-0ce8-4184-bd40-217a08c9c57a</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>https://www.uidaho.edu/extension/our-people/s-t/taylor-smith</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Failed to fetch URL</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>{'exception_type': 'HTTPError', 'message': '404 Client Error: Not Found for url: https://www.uidaho.edu/extension/our-people/s-t/taylor-smith', 'status_code': 404, 'traceback': 'Traceback (most recent call last):\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/src/nodes.py", line 88, in fetch_html\n    response.raise_for_status()  # Raise HTTPError for bad responses (4xx or 5xx)\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/.venv/lib/python3.9/site-packages/requests/models.py", line 1024, in raise_for_status\n    raise HTTPError(http_error_msg, response=self)\nrequests.exceptions.HTTPError: 404 Client Error: Not Found for url: https://www.uidaho.edu/extension/our-people/s-t/taylor-smith\n'}</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>profile-thread-823a75ea-207e-4681-bb0f-65ab9a057f82</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>https://www.uidaho.edu/extension/our-people/u-z/julia-villagomez</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Failed to fetch URL</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>{'exception_type': 'HTTPError', 'message': '404 Client Error: Not Found for url: https://www.uidaho.edu/extension/our-people/u-z/julia-villagomez', 'status_code': 404, 'traceback': 'Traceback (most recent call last):\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/src/nodes.py", line 88, in fetch_html\n    response.raise_for_status()  # Raise HTTPError for bad responses (4xx or 5xx)\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/.venv/lib/python3.9/site-packages/requests/models.py", line 1024, in raise_for_status\n    raise HTTPError(http_error_msg, response=self)\nrequests.exceptions.HTTPError: 404 Client Error: Not Found for url: https://www.uidaho.edu/extension/our-people/u-z/julia-villagomez\n'}</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>profile-thread-a7627d65-f488-4efc-a51d-e9760d750500</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>https://www.uidaho.edu/cbe/our-people/accounting-mis-faculty/lela-pumphrey</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Failed to fetch URL</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>{'exception_type': 'HTTPError', 'message': '404 Client Error: Not Found for url: https://www.uidaho.edu/cbe/our-people/accounting-mis-faculty/lela-pumphrey', 'status_code': 404, 'traceback': 'Traceback (most recent call last):\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/src/nodes.py", line 88, in fetch_html\n    response.raise_for_status()  # Raise HTTPError for bad responses (4xx or 5xx)\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/.venv/lib/python3.9/site-packages/requests/models.py", line 1024, in raise_for_status\n    raise HTTPError(http_error_msg, response=self)\nrequests.exceptions.HTTPError: 404 Client Error: Not Found for url: https://www.uidaho.edu/cbe/our-people/accounting-mis-faculty/lela-pumphrey\n'}</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>profile-thread-34a459f4-6cfb-47ad-bb16-e8afd51670d2</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>https://www.uidaho.edu/law/people/faculty/dawn-young</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Failed to fetch URL</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>{'exception_type': 'HTTPError', 'message': '404 Client Error: Not Found for url: https://www.uidaho.edu/law/people/faculty/dawn-young', 'status_code': 404, 'traceback': 'Traceback (most recent call last):\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/src/nodes.py", line 88, in fetch_html\n    response.raise_for_status()  # Raise HTTPError for bad responses (4xx or 5xx)\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/.venv/lib/python3.9/site-packages/requests/models.py", line 1024, in raise_for_status\n    raise HTTPError(http_error_msg, response=self)\nrequests.exceptions.HTTPError: 404 Client Error: Not Found for url: https://www.uidaho.edu/law/people/faculty/dawn-young\n'}</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>profile-thread-6082c44f-caaf-4eb0-964b-0fe2ff9a8ee0</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>https://www.uidaho.edu/law/people/faculty/debmcin</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Failed to fetch URL</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>{'exception_type': 'HTTPError', 'message': '404 Client Error: Not Found for url: https://www.uidaho.edu/law/people/faculty/debmcin', 'status_code': 404, 'traceback': 'Traceback (most recent call last):\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/src/nodes.py", line 88, in fetch_html\n    response.raise_for_status()  # Raise HTTPError for bad responses (4xx or 5xx)\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/.venv/lib/python3.9/site-packages/requests/models.py", line 1024, in raise_for_status\n    raise HTTPError(http_error_msg, response=self)\nrequests.exceptions.HTTPError: 404 Client Error: Not Found for url: https://www.uidaho.edu/law/people/faculty/debmcin\n'}</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>profile-thread-58b964dd-3dd9-4bb7-bcc9-778e79ef6612</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>https://www.uidaho.edu/law/people/faculty/johanna-kalb</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Failed to fetch URL</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>{'exception_type': 'HTTPError', 'message': '404 Client Error: Not Found for url: https://www.uidaho.edu/law/people/faculty/johanna-kalb', 'status_code': 404, 'traceback': 'Traceback (most recent call last):\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/src/nodes.py", line 88, in fetch_html\n    response.raise_for_status()  # Raise HTTPError for bad responses (4xx or 5xx)\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/.venv/lib/python3.9/site-packages/requests/models.py", line 1024, in raise_for_status\n    raise HTTPError(http_error_msg, response=self)\nrequests.exceptions.HTTPError: 404 Client Error: Not Found for url: https://www.uidaho.edu/law/people/faculty/johanna-kalb\n'}</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>profile-thread-654a5186-6d55-4afd-afe3-dfa1e129a043</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>https://www.uidaho.edu/law/people/faculty/megan-starich</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Failed to fetch URL</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>{'exception_type': 'HTTPError', 'message': '404 Client Error: Not Found for url: https://www.uidaho.edu/law/people/faculty/megan-starich', 'status_code': 404, 'traceback': 'Traceback (most recent call last):\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/src/nodes.py", line 88, in fetch_html\n    response.raise_for_status()  # Raise HTTPError for bad responses (4xx or 5xx)\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/.venv/lib/python3.9/site-packages/requests/models.py", line 1024, in raise_for_status\n    raise HTTPError(http_error_msg, response=self)\nrequests.exceptions.HTTPError: 404 Client Error: Not Found for url: https://www.uidaho.edu/law/people/faculty/megan-starich\n'}</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>profile-thread-6cb9c4a1-294b-4eba-b116-7c4e9d6635c3</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>https://www.uidaho.edu/law/people/faculty/merritt-dublin</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Failed to fetch URL</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>{'exception_type': 'HTTPError', 'message': '404 Client Error: Not Found for url: https://www.uidaho.edu/law/people/faculty/merritt-dublin', 'status_code': 404, 'traceback': 'Traceback (most recent call last):\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/src/nodes.py", line 88, in fetch_html\n    response.raise_for_status()  # Raise HTTPError for bad responses (4xx or 5xx)\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/.venv/lib/python3.9/site-packages/requests/models.py", line 1024, in raise_for_status\n    raise HTTPError(http_error_msg, response=self)\nrequests.exceptions.HTTPError: 404 Client Error: Not Found for url: https://www.uidaho.edu/law/people/faculty/merritt-dublin\n'}</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>profile-thread-581794d5-1a80-4624-9e23-a5580a7b60d1</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>https://www.uidaho.edu/law/people/faculty/millers</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Failed to fetch URL</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>{'exception_type': 'HTTPError', 'message': '404 Client Error: Not Found for url: https://www.uidaho.edu/law/people/faculty/millers', 'status_code': 404, 'traceback': 'Traceback (most recent call last):\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/src/nodes.py", line 88, in fetch_html\n    response.raise_for_status()  # Raise HTTPError for bad responses (4xx or 5xx)\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/.venv/lib/python3.9/site-packages/requests/models.py", line 1024, in raise_for_status\n    raise HTTPError(http_error_msg, response=self)\nrequests.exceptions.HTTPError: 404 Client Error: Not Found for url: https://www.uidaho.edu/law/people/faculty/millers\n'}</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>profile-thread-d48c3ec6-a285-45aa-9aa9-6b8101fe35f5</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>https://www.uidaho.edu/class/csj/people/leah-evans-janke</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Failed to fetch URL</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>{'exception_type': 'HTTPError', 'message': '404 Client Error: Not Found for url: https://www.uidaho.edu/class/csj/people/leah-evans-janke', 'status_code': 404, 'traceback': 'Traceback (most recent call last):\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/src/nodes.py", line 88, in fetch_html\n    response.raise_for_status()  # Raise HTTPError for bad responses (4xx or 5xx)\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/.venv/lib/python3.9/site-packages/requests/models.py", line 1024, in raise_for_status\n    raise HTTPError(http_error_msg, response=self)\nrequests.exceptions.HTTPError: 404 Client Error: Not Found for url: https://www.uidaho.edu/class/csj/people/leah-evans-janke\n'}</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>profile-thread-f83d37fb-cb48-484c-8457-335a520baa74</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>https://www.uidaho.edu/cnr/departments/fish-and-wildlife-sciences/our-people/seunghan-lee</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Failed to fetch URL</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>{'exception_type': 'HTTPError', 'message': '404 Client Error: Not Found for url: https://www.uidaho.edu/cnr/departments/fish-and-wildlife-sciences/our-people/seunghan-lee', 'status_code': 404, 'traceback': 'Traceback (most recent call last):\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/src/nodes.py", line 88, in fetch_html\n    response.raise_for_status()  # Raise HTTPError for bad responses (4xx or 5xx)\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/.venv/lib/python3.9/site-packages/requests/models.py", line 1024, in raise_for_status\n    raise HTTPError(http_error_msg, response=self)\nrequests.exceptions.HTTPError: 404 Client Error: Not Found for url: https://www.uidaho.edu/cnr/departments/fish-and-wildlife-sciences/our-people/seunghan-lee\n'}</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>profile-thread-5b69cee1-f52d-406a-b6be-91b2a88751ec</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>https://www.uidaho.edu/sci/biology/people/adjuncts</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>LLM output failed validation/parsing after successful call</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>{'exception_type': 'ValueError', 'message': 'LLM output is not a JSON object or a list containing a single object.', 'llm_content': '```json\n[\n  {\n    "first_name": "Tyler",\n    "middle_name": null,\n    "last_name": "Bland",\n    "title": "Affiliate Faculty",\n    "office": "WWAMI Medical Education Building 153B",\n    "phone": "208-885-1236",\n    "email": "tbland@uidaho.edu",\n    "college_unit": null,\n    "department_division": "Department of Biological Sciences",\n    "degrees": [],\n    "research_focus_areas": []\n  },\n  {\n    "first_name": "Rajal",\n    "middle_name": "G",\n    "last_name": "Cohen",\n    "title": "Affiliate Faculty Assistant Professor\\u00a0of Psychology &amp; Communication Studies Graduate Faculty in Human Factors and Neuroscience",\n    "office": null,\n    "phone": "208-885-4102",\n    "email": "rcohen@uidaho.edu",\n    "college_unit": null,\n    "department_division": null,\n    "degrees": [\n      {\n        "degree_type": "Ph.D.",\n        "institution": null,\n        "year": null\n      }\n    ],\n    "research_focus_areas": []\n  },\n  {\n    "first_name": "Courtney",\n    "middle_name": null,\n    "last_name": "Conway",\n    "title": "Affiliate Faculty Director of the Idaho Cooperative Fish &amp; Wildlife Research Unit",\n    "office": null,\n    "phone": "208-885-6176",\n    "email": "cconway@uidaho.edu",\n    "college_unit": null,\n    "department_division": null,\n    "degrees": [\n      {\n        "degree_type": "Ph.D.",\n        "institution": null,\n        "year": null\n      }\n    ],\n    "research_focus_areas": [\n      "Behavioral Ecology of Birds and Mammals",\n      "Conservation Biology",\n      "Animal Migration",\n      "Life History Evolution"\n    ]\n  },\n  {\n    "first_name": "Alexandra",\n    "middle_name": null,\n    "last_name": "Fraik",\n    "title": "Adjunct Faculty",\n    "office": null,\n    "phone": null,\n    "email": "alexandra.fraik@usda.gov",\n    "college_unit": null,\n    "department_division": null,\n    "degrees": [],\n    "research_focus_areas": []\n  },\n  {\n    "first_name": "Esteban",\n    "middle_name": null,\n    "last_name": "Hernandez-Vargas",\n    "title": "Affiliate Faculty",\n    "office": null,\n    "phone": "208-885-2188",\n    "email": "estaban@uidaho.edu",\n    "college_unit": null,\n    "department_division": "Department of Mathematics and Statistical Science",\n    "degrees": [],\n    "research_focus_areas": []\n  },\n  {\n    "first_name": "Patrick",\n    "middle_name": "J",\n    "last_name": "Hrdlicka",\n    "title": "Affiliate Faculty",\n    "office": null,\n    "phone": "208-885-0108",\n    "email": "hrdlicka@uidaho.edu",\n    "college_unit": null,\n    "department_division": "Department of Chemistry",\n    "degrees": [],\n    "research_focus_areas": []\n  },\n  {\n    "first_name": "Brian",\n    "middle_name": null,\n    "last_name": "Kennedy",\n    "title": "Affiliate Faculty",\n    "office": null,\n    "phone": "208-885-5171",\n    "email": "kennedy@uidaho.edu",\n    "college_unit": "College of Natural Resources",\n    "department_division": "Dept. of Fish &amp; Wildlife Resources",\n    "degrees": [],\n    "research_focus_areas": []\n  },\n  {\n    "first_name": "Peter",\n    "middle_name": null,\n    "last_name": "Meserve",\n    "title": "Adjunct Faculty Distinguished Research Professor, Northern Illinois University, Emeritus",\n    "office": null,\n    "phone": null,\n    "email": null,\n    "college_unit": null,\n    "department_division": null,\n    "degrees": [],\n    "research_focus_areas": []\n  },\n  {\n    "first_name": "Andrew",\n    "middle_name": null,\n    "last_name": "Pierce",\n    "title": "Adjunct Faculty",\n    "office": null,\n    "phone": "208-885-8857",\n    "email": "apierce@uidaho.edu",\n    "college_unit": null,\n    "department_division": null,\n    "degrees": [],\n    "research_focus_areas": []\n  },\n  {\n    "first_name": "Christopher",\n    "middle_name": null,\n    "last_name": "Remien",\n    "title": "Affiliate Faculty",\n    "office": null,\n    "phone": null,\n    "email": "cremien@uidaho.edu",\n    "college_unit": null,\n    "department_division": "Department of Mathematics",\n    "degrees": [],\n    "research_focus_areas": []\n  },\n  {\n    "first_name": "Nathan",\n    "middle_name": "R",\n    "last_name": "Schiele",\n    "title": null,\n    "office": "Engineering/Physics 412",\n    "phone": "208-885-9063",\n    "email": "nrschiele@uidaho.edu",\n    "college_unit": null,\n    "department_division": "Department of Biological Engineering",\n    "degrees": [],\n    "research_focus_areas": [\n      "Tissue Engineering",\n      "Mechanobiology",\n      "Musculoskeletal Tissues",\n      "Tendon Mechanics",\n      "Stem Cell Differentiation"\n    ]\n  },\n  {\n    "first_name": "Irvin",\n    "middle_name": "R",\n    "last_name": "Schultz",\n    "title": "Adjunct Faculty Toxicologist",\n    "office": null,\n    "phone": null,\n    "email": "irvin.schultz@noaa.gov",\n    "college_unit": null,\n    "department_division": null,\n    "degrees": [],\n    "research_focus_areas": [\n      "Ecotoxicology and Biotechnology",\n      "Marine and Coastal Resources",\n      "Marine and Environmental Chemistry",\n      "Water Resources Modeling"\n    ]\n  },\n  {\n    "first_name": "Sergey",\n    "middle_name": null,\n    "last_name": "Stolyar",\n    "title": "Adjunct Faculty",\n    "office": null,\n    "phone": "206-931-8762",\n    "email": "sstolyar1717@gmail.com",\n    "college_unit": null,\n    "department_division": null,\n    "degrees": [],\n    "research_focus_areas": []\n  },\n  {\n    "first_name": "Dave",\n    "middle_name": null,\n    "last_name": "Tank",\n    "title": "Adjunct Faculty",\n    "office": null,\n    "phone": "307-766-2384",\n    "email": "dtank@uwyo.edu",\n    "college_unit": null,\n    "department_division": null,\n    "degrees": [],\n    "research_focus_areas": []\n  },\n  {\n    "first_name": "JT",\n    "middle_name": null,\n    "last_name": "Van Leuven",\n    "title": "Affiliate Faculty",\n    "office": null,\n    "phone": null,\n    "email": "jvanleuven@uidaho.edu",\n    "college_unit": null,\n    "department_division": null,\n    "degrees": [],\n    "research_focus_areas": []\n  }\n]\n```', 'traceback': 'Traceback (most recent call last):\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/src/nodes.py", line 452, in extract_data\n    raise ValueError(\nValueError: LLM output is not a JSON object or a list containing a single object.\n'}</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>profile-thread-57969053-7325-418b-8f46-0e2b0db21d48</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>https://www.uidaho.edu/sci/physics/people/faculty/machleid</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Failed to fetch URL</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>{'exception_type': 'HTTPError', 'message': '404 Client Error: Not Found for url: https://www.uidaho.edu/sci/physics/people/faculty/machleid', 'status_code': 404, 'traceback': 'Traceback (most recent call last):\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/src/nodes.py", line 88, in fetch_html\n    response.raise_for_status()  # Raise HTTPError for bad responses (4xx or 5xx)\n  File "/Users/colesummers/Documents/GitHub/profile-extractor/.venv/lib/python3.9/site-packages/requests/models.py", line 1024, in raise_for_status\n    raise HTTPError(http_error_msg, response=self)\nrequests.exceptions.HTTPError: 404 Client Error: Not Found for url: https://www.uidaho.edu/sci/physics/people/faculty/machleid\n'}</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>profile-thread-c34c3db7-ad32-47cf-85a9-64f1a848f19a</t>
         </is>
       </c>
     </row>
